--- a/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5312EB6D-7E9F-445D-8978-16FB6DF07253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BA8E4F-5D17-44C4-80C9-BACCAB40E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6072C02-B2F4-490A-A653-1947DAF4D189}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BB23596-7DCB-401F-9AA9-94C00649C490}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="890">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2692 +77,2638 @@
     <t>20,87%</t>
   </si>
   <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>22,0%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>20,11%</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9897FAD-49A3-4EC6-8962-150FD8DD50DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6C5BD-7B57-4C03-9C81-726B3EDDF282}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4260,7 +4206,7 @@
         <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4262,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4328,13 +4274,13 @@
         <v>53780</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4343,13 +4289,13 @@
         <v>34888</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -4358,13 +4304,13 @@
         <v>88668</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4325,13 @@
         <v>149297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -4394,13 +4340,13 @@
         <v>135056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>277</v>
@@ -4409,13 +4355,13 @@
         <v>284353</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4376,13 @@
         <v>67734</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
@@ -4445,13 +4391,13 @@
         <v>108200</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -4460,13 +4406,13 @@
         <v>175934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4468,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4534,13 +4480,13 @@
         <v>103656</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>83</v>
@@ -4549,13 +4495,13 @@
         <v>90315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>183</v>
@@ -4564,13 +4510,13 @@
         <v>193971</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4531,13 @@
         <v>345589</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>296</v>
@@ -4600,13 +4546,13 @@
         <v>305622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -4615,10 +4561,10 @@
         <v>651211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>197</v>
@@ -4949,10 +4895,10 @@
         <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>452</v>
@@ -4964,25 +4910,25 @@
         <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>979</v>
       </c>
       <c r="N36" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4943,13 @@
         <v>1693413</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>1554</v>
@@ -5012,28 +4958,28 @@
         <v>1587673</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>3203</v>
       </c>
       <c r="N37" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +4994,13 @@
         <v>1031723</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1291</v>
@@ -5063,28 +5009,28 @@
         <v>1315113</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>2329</v>
       </c>
       <c r="N38" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5072,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -5140,7 +5086,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5164,7 +5110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FBE05-732C-4336-8260-1572D6EBE996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61764BB4-684C-48C4-BD3A-D5F1918F1478}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5181,7 +5127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5286,39 +5232,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,39 +5277,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,39 +5322,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,39 +5367,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5416,13 @@
         <v>51255</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -5485,13 +5431,13 @@
         <v>50112</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -5500,13 +5446,13 @@
         <v>101367</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5467,13 @@
         <v>278721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>225</v>
@@ -5536,13 +5482,13 @@
         <v>246063</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>486</v>
@@ -5551,13 +5497,13 @@
         <v>524784</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5518,13 @@
         <v>175551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -5587,13 +5533,13 @@
         <v>226481</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
@@ -5602,13 +5548,13 @@
         <v>402033</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5622,13 @@
         <v>46648</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -5691,13 +5637,13 @@
         <v>47240</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5706,13 +5652,13 @@
         <v>93887</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5673,13 @@
         <v>171658</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -5742,13 +5688,13 @@
         <v>137353</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -5757,13 +5703,13 @@
         <v>309011</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5724,13 @@
         <v>105740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -5793,13 +5739,13 @@
         <v>156428</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -5808,10 +5754,10 @@
         <v>262168</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>312</v>
@@ -5912,13 +5858,13 @@
         <v>179782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +5966,7 @@
         <v>337</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +6034,7 @@
         <v>31091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>339</v>
@@ -6109,7 +6055,7 @@
         <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -6118,13 +6064,13 @@
         <v>57567</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6085,13 @@
         <v>138680</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -6154,7 +6100,7 @@
         <v>115500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>350</v>
@@ -6282,7 +6228,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6381,7 +6327,7 @@
         <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6342,13 @@
         <v>95857</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>128</v>
@@ -6411,13 +6357,13 @@
         <v>131209</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>222</v>
@@ -6426,13 +6372,13 @@
         <v>227066</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6434,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6446,13 @@
         <v>116071</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6515,13 +6461,13 @@
         <v>98933</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -6530,13 +6476,13 @@
         <v>215004</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6497,13 @@
         <v>353167</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -6566,13 +6512,13 @@
         <v>346189</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>652</v>
@@ -6581,13 +6527,13 @@
         <v>699355</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6548,13 @@
         <v>192215</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>229</v>
@@ -6617,13 +6563,13 @@
         <v>247786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
         <v>407</v>
@@ -6632,13 +6578,13 @@
         <v>440001</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6652,13 @@
         <v>110497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -6721,13 +6667,13 @@
         <v>106756</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>419</v>
       </c>
       <c r="M32" s="7">
         <v>194</v>
@@ -6736,13 +6682,13 @@
         <v>217253</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6703,13 @@
         <v>474540</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H33" s="7">
         <v>431</v>
@@ -6772,13 +6718,13 @@
         <v>462101</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M33" s="7">
         <v>875</v>
@@ -6787,13 +6733,13 @@
         <v>936642</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6754,13 @@
         <v>190979</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>232</v>
@@ -6826,10 +6772,10 @@
         <v>34</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -6838,13 +6784,13 @@
         <v>445005</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6832,7 @@
         <v>1470</v>
       </c>
       <c r="N35" s="7">
-        <v>1598900</v>
+        <v>1598901</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -6912,13 +6858,13 @@
         <v>481181</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H36" s="7">
         <v>412</v>
@@ -6927,13 +6873,13 @@
         <v>458631</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="M36" s="7">
         <v>850</v>
@@ -6942,13 +6888,13 @@
         <v>939813</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6909,13 @@
         <v>1963957</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H37" s="7">
         <v>1635</v>
@@ -6978,13 +6924,13 @@
         <v>1757803</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M37" s="7">
         <v>3491</v>
@@ -6993,13 +6939,13 @@
         <v>3721760</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +6960,13 @@
         <v>974643</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H38" s="7">
         <v>1247</v>
@@ -7029,13 +6975,13 @@
         <v>1337796</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M38" s="7">
         <v>2155</v>
@@ -7044,13 +6990,13 @@
         <v>2312440</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,7 +7052,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6A556B-5089-46D9-8190-BCC7A77686C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD97BAB3-28D9-42AB-83B6-DD3886960E67}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7147,7 +7093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7254,13 +7200,13 @@
         <v>31350</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -7269,13 +7215,13 @@
         <v>54564</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -7284,13 +7230,13 @@
         <v>85913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>473</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7251,13 @@
         <v>179384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>148</v>
@@ -7320,13 +7266,13 @@
         <v>149269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>306</v>
@@ -7335,13 +7281,13 @@
         <v>328652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7302,13 @@
         <v>81032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -7371,13 +7317,13 @@
         <v>83928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>60</v>
       </c>
       <c r="M6" s="7">
         <v>157</v>
@@ -7386,13 +7332,13 @@
         <v>164959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7406,13 @@
         <v>47344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -7475,13 +7421,13 @@
         <v>55583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>98</v>
@@ -7490,13 +7436,13 @@
         <v>102927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7457,13 @@
         <v>332819</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -7526,13 +7472,13 @@
         <v>288240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M9" s="7">
         <v>584</v>
@@ -7541,13 +7487,13 @@
         <v>621059</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7508,13 @@
         <v>122411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7577,13 +7523,13 @@
         <v>179261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>277</v>
@@ -7592,13 +7538,13 @@
         <v>301673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7612,13 @@
         <v>46279</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -7681,13 +7627,13 @@
         <v>55295</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -7696,13 +7642,13 @@
         <v>101573</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7663,13 @@
         <v>198919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>185</v>
@@ -7732,13 +7678,13 @@
         <v>181426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -7747,13 +7693,13 @@
         <v>380344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7714,13 @@
         <v>73368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -7783,13 +7729,13 @@
         <v>99589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -7798,13 +7744,13 @@
         <v>172956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7818,13 @@
         <v>68168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -7887,13 +7833,13 @@
         <v>65628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>539</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -7902,13 +7848,13 @@
         <v>133797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7869,13 @@
         <v>218390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -7938,13 +7884,13 @@
         <v>201048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -7953,13 +7899,13 @@
         <v>419438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +7920,13 @@
         <v>81576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -7989,13 +7935,13 @@
         <v>118121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -8004,13 +7950,13 @@
         <v>199697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8024,13 @@
         <v>26004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -8093,13 +8039,13 @@
         <v>13508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -8108,13 +8054,13 @@
         <v>39511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8075,13 @@
         <v>99063</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -8144,13 +8090,13 @@
         <v>117297</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M21" s="7">
         <v>217</v>
@@ -8159,13 +8105,13 @@
         <v>216360</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8126,13 @@
         <v>81704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -8195,13 +8141,13 @@
         <v>84792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>171</v>
@@ -8210,13 +8156,13 @@
         <v>166497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,7 +8218,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8284,13 +8230,13 @@
         <v>42838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -8299,13 +8245,13 @@
         <v>36801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -8314,13 +8260,13 @@
         <v>79639</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,13 +8281,13 @@
         <v>143439</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
@@ -8350,13 +8296,13 @@
         <v>145707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>284</v>
@@ -8365,13 +8311,13 @@
         <v>289146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8332,13 @@
         <v>76846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -8401,13 +8347,13 @@
         <v>90607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>160</v>
@@ -8416,13 +8362,13 @@
         <v>167453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8478,7 +8424,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8490,13 +8436,13 @@
         <v>150134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>140</v>
@@ -8505,13 +8451,13 @@
         <v>144689</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -8520,13 +8466,13 @@
         <v>294823</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8487,13 @@
         <v>400128</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>366</v>
@@ -8556,13 +8502,13 @@
         <v>386096</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>717</v>
@@ -8571,13 +8517,13 @@
         <v>786224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8538,13 @@
         <v>104187</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H30" s="7">
         <v>140</v>
@@ -8607,13 +8553,13 @@
         <v>160509</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>636</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M30" s="7">
         <v>241</v>
@@ -8622,13 +8568,13 @@
         <v>264696</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,28 +8642,28 @@
         <v>134770</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
       </c>
       <c r="I32" s="7">
-        <v>123072</v>
+        <v>123073</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="M32" s="7">
         <v>241</v>
@@ -8726,13 +8672,13 @@
         <v>257842</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,28 +8693,28 @@
         <v>504241</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>653</v>
       </c>
       <c r="H33" s="7">
         <v>481</v>
       </c>
       <c r="I33" s="7">
-        <v>519218</v>
+        <v>519219</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="M33" s="7">
         <v>967</v>
@@ -8777,13 +8723,13 @@
         <v>1023460</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8744,13 @@
         <v>133223</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="H34" s="7">
         <v>154</v>
@@ -8813,13 +8759,13 @@
         <v>177853</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>664</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="M34" s="7">
         <v>285</v>
@@ -8828,13 +8774,13 @@
         <v>311076</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>667</v>
+        <v>542</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,7 +8807,7 @@
         <v>749</v>
       </c>
       <c r="I35" s="7">
-        <v>820144</v>
+        <v>820145</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -8902,13 +8848,13 @@
         <v>546886</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>669</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>670</v>
+        <v>389</v>
       </c>
       <c r="H36" s="7">
         <v>526</v>
@@ -8917,13 +8863,13 @@
         <v>549140</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>671</v>
+        <v>105</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>42</v>
+        <v>667</v>
       </c>
       <c r="M36" s="7">
         <v>1027</v>
@@ -8932,13 +8878,13 @@
         <v>1096027</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>674</v>
+        <v>543</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +8899,13 @@
         <v>2076385</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H37" s="7">
         <v>1908</v>
@@ -8968,13 +8914,13 @@
         <v>1988300</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="M37" s="7">
         <v>3860</v>
@@ -8983,13 +8929,13 @@
         <v>4064685</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>556</v>
+        <v>676</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +8950,13 @@
         <v>754347</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>684</v>
+        <v>516</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H38" s="7">
         <v>892</v>
@@ -9019,13 +8965,13 @@
         <v>994660</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>687</v>
+        <v>37</v>
       </c>
       <c r="M38" s="7">
         <v>1654</v>
@@ -9034,13 +8980,13 @@
         <v>1749007</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>690</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,7 +9042,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9120,7 +9066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BD237B-08FD-4FF4-AA98-6671E8BA6FDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE2B4A0-C720-4373-9A02-44B53AC2382F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9137,7 +9083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9244,13 +9190,13 @@
         <v>50784</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H4" s="7">
         <v>115</v>
@@ -9259,13 +9205,13 @@
         <v>63619</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -9274,13 +9220,13 @@
         <v>114403</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>699</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9295,13 +9241,13 @@
         <v>155140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H5" s="7">
         <v>306</v>
@@ -9310,13 +9256,13 @@
         <v>150233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="M5" s="7">
         <v>498</v>
@@ -9325,13 +9271,13 @@
         <v>305373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>636</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9346,13 +9292,13 @@
         <v>54374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -9361,13 +9307,13 @@
         <v>56638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>643</v>
+        <v>706</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M6" s="7">
         <v>190</v>
@@ -9376,13 +9322,13 @@
         <v>111012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>714</v>
+        <v>618</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9450,13 +9396,13 @@
         <v>96435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>718</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -9465,13 +9411,13 @@
         <v>79956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>714</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -9480,13 +9426,13 @@
         <v>176392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,13 +9447,13 @@
         <v>367998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H9" s="7">
         <v>433</v>
@@ -9516,13 +9462,13 @@
         <v>348380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M9" s="7">
         <v>686</v>
@@ -9531,13 +9477,13 @@
         <v>716378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,13 +9498,13 @@
         <v>53490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>733</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H10" s="7">
         <v>187</v>
@@ -9567,13 +9513,13 @@
         <v>126230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>737</v>
+        <v>689</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -9582,13 +9528,13 @@
         <v>179720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,13 +9602,13 @@
         <v>41171</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>98</v>
+        <v>736</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -9671,13 +9617,13 @@
         <v>51898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -9686,13 +9632,13 @@
         <v>93069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>747</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9653,13 @@
         <v>209623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H13" s="7">
         <v>308</v>
@@ -9722,13 +9668,13 @@
         <v>227788</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>753</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="M13" s="7">
         <v>520</v>
@@ -9737,13 +9683,13 @@
         <v>437411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,13 +9704,13 @@
         <v>70779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>759</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -9773,13 +9719,13 @@
         <v>89812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>751</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>760</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
@@ -9788,13 +9734,13 @@
         <v>160591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>567</v>
+        <v>753</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9862,13 +9808,13 @@
         <v>106985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>584</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>617</v>
+        <v>756</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -9877,13 +9823,13 @@
         <v>111614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -9892,13 +9838,13 @@
         <v>218599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9913,13 +9859,13 @@
         <v>153057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>770</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>772</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -9928,13 +9874,13 @@
         <v>217148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -9943,13 +9889,13 @@
         <v>370205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>776</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>778</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9964,13 +9910,13 @@
         <v>61595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>717</v>
+        <v>768</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -9979,13 +9925,13 @@
         <v>98999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>782</v>
+        <v>621</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>783</v>
+        <v>198</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -9994,13 +9940,13 @@
         <v>160594</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10068,13 +10014,13 @@
         <v>56520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -10083,13 +10029,13 @@
         <v>55273</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>791</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -10098,13 +10044,13 @@
         <v>111793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10119,13 +10065,13 @@
         <v>130259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="H21" s="7">
         <v>318</v>
@@ -10134,13 +10080,13 @@
         <v>150623</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="M21" s="7">
         <v>500</v>
@@ -10149,13 +10095,13 @@
         <v>280883</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,13 +10116,13 @@
         <v>9808</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -10185,13 +10131,13 @@
         <v>25600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>807</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>809</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -10200,13 +10146,13 @@
         <v>35408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>795</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,7 +10208,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10274,13 +10220,13 @@
         <v>33252</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -10289,13 +10235,13 @@
         <v>53153</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>816</v>
+        <v>236</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="M24" s="7">
         <v>118</v>
@@ -10304,13 +10250,13 @@
         <v>86405</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>804</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10325,13 +10271,13 @@
         <v>180564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -10340,13 +10286,13 @@
         <v>155638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="M25" s="7">
         <v>439</v>
@@ -10355,13 +10301,13 @@
         <v>336201</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,13 +10322,13 @@
         <v>63408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>831</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>157</v>
@@ -10391,13 +10337,13 @@
         <v>66831</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -10406,13 +10352,13 @@
         <v>130239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,7 +10414,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10480,13 +10426,13 @@
         <v>141707</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
@@ -10495,13 +10441,13 @@
         <v>173891</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>759</v>
+        <v>704</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -10510,13 +10456,13 @@
         <v>315598</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10531,13 +10477,13 @@
         <v>391785</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="H29" s="7">
         <v>535</v>
@@ -10546,13 +10492,13 @@
         <v>507694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="M29" s="7">
         <v>885</v>
@@ -10561,13 +10507,13 @@
         <v>899479</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>853</v>
+        <v>722</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10582,13 +10528,13 @@
         <v>91796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -10597,13 +10543,13 @@
         <v>120657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>859</v>
+        <v>569</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>664</v>
+        <v>513</v>
       </c>
       <c r="M30" s="7">
         <v>276</v>
@@ -10612,13 +10558,13 @@
         <v>212453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>669</v>
+        <v>842</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>861</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10686,13 +10632,13 @@
         <v>146184</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>864</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
@@ -10701,13 +10647,13 @@
         <v>124482</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>847</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="M32" s="7">
         <v>280</v>
@@ -10716,13 +10662,13 @@
         <v>270666</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>746</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10737,13 +10683,13 @@
         <v>573596</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="H33" s="7">
         <v>555</v>
@@ -10752,13 +10698,13 @@
         <v>492016</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="M33" s="7">
         <v>1025</v>
@@ -10767,13 +10713,13 @@
         <v>1065612</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10788,13 +10734,13 @@
         <v>136384</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>879</v>
+        <v>517</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>520</v>
+        <v>861</v>
       </c>
       <c r="H34" s="7">
         <v>361</v>
@@ -10803,13 +10749,13 @@
         <v>251186</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>882</v>
+        <v>363</v>
       </c>
       <c r="M34" s="7">
         <v>515</v>
@@ -10818,13 +10764,13 @@
         <v>387569</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10892,13 +10838,13 @@
         <v>673039</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="H36" s="7">
         <v>1004</v>
@@ -10907,28 +10853,28 @@
         <v>713887</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>890</v>
+        <v>159</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="M36" s="7">
         <v>1685</v>
       </c>
       <c r="N36" s="7">
-        <v>1386926</v>
+        <v>1386925</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10943,13 +10889,13 @@
         <v>2162022</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>895</v>
+        <v>109</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="H37" s="7">
         <v>2921</v>
@@ -10958,28 +10904,28 @@
         <v>2249521</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="M37" s="7">
         <v>4913</v>
       </c>
       <c r="N37" s="7">
-        <v>4411543</v>
+        <v>4411542</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>655</v>
+        <v>783</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10994,13 +10940,13 @@
         <v>541634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>12</v>
+        <v>881</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="H38" s="7">
         <v>1427</v>
@@ -11009,28 +10955,28 @@
         <v>835953</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>642</v>
+        <v>884</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="M38" s="7">
         <v>2118</v>
       </c>
       <c r="N38" s="7">
-        <v>1377587</v>
+        <v>1377586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>839</v>
+        <v>887</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11042,7 +10988,7 @@
         <v>3364</v>
       </c>
       <c r="D39" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -11072,7 +11018,7 @@
         <v>8716</v>
       </c>
       <c r="N39" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -11086,7 +11032,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAEE8F9B-B8B0-4C0F-8EF1-59AF502D6998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49A1843-172E-42D5-8B4A-024C70DC3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77461404-8123-4686-AEF7-A8149C3F29F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EF8848B9-7485-4110-A00F-B6B87DD97100}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="916">
   <si>
     <t>Nivel de estudios en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -830,7 +830,85 @@
     <t>Nivel de estudios en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>10,14%</t>
@@ -851,9 +929,6 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
     <t>7,91%</t>
   </si>
   <si>
@@ -980,1789 +1055,1738 @@
     <t>43,69%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Nivel de estudios en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>63,11%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3500CF-1D74-40AE-BC43-55AEFD8FB089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BAC09C-2A57-4502-AF7E-3E01792269ED}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4973,7 +4997,7 @@
         <v>979</v>
       </c>
       <c r="N36" s="7">
-        <v>1027819</v>
+        <v>1027820</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>240</v>
@@ -4994,7 +5018,7 @@
         <v>1649</v>
       </c>
       <c r="D37" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>243</v>
@@ -5024,7 +5048,7 @@
         <v>3203</v>
       </c>
       <c r="N37" s="7">
-        <v>3281085</v>
+        <v>3281086</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>249</v>
@@ -5075,7 +5099,7 @@
         <v>2329</v>
       </c>
       <c r="N38" s="7">
-        <v>2346835</v>
+        <v>2346836</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>258</v>
@@ -5096,7 +5120,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -5111,7 +5135,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -5126,7 +5150,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -5164,7 +5188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25185EC3-E19D-4777-B668-48F5009342E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8152016-B0C3-43C4-8A52-E0F96E0BCCA7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5282,43 +5306,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>41434</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>31246</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N4" s="7">
+        <v>72680</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,43 +5357,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D5" s="7">
+        <v>163535</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="I5" s="7">
+        <v>151043</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="N5" s="7">
+        <v>314578</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,43 +5408,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>88149</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="7">
+        <v>104956</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="N6" s="7">
+        <v>193105</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,43 +5459,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D7" s="7">
+        <v>293117</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N7" s="7">
+        <v>580362</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5518,13 @@
         <v>51255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -5485,13 +5533,13 @@
         <v>50112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -5503,10 +5551,10 @@
         <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,10 +5572,10 @@
         <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H9" s="7">
         <v>225</v>
@@ -5536,13 +5584,13 @@
         <v>246063</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="M9" s="7">
         <v>486</v>
@@ -5551,13 +5599,13 @@
         <v>524784</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5620,13 @@
         <v>175551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -5587,13 +5635,13 @@
         <v>226481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
@@ -5602,13 +5650,13 @@
         <v>402033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5724,13 @@
         <v>46648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -5691,13 +5739,13 @@
         <v>47240</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5706,13 +5754,13 @@
         <v>93887</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5775,13 @@
         <v>171658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -5742,13 +5790,13 @@
         <v>137353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -5757,13 +5805,13 @@
         <v>309011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,10 +5829,10 @@
         <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -5793,13 +5841,13 @@
         <v>156428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -5808,13 +5856,13 @@
         <v>262168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,49 +5924,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>85902</v>
+        <v>44468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>93880</v>
+        <v>62634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>179782</v>
+        <v>107102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,49 +5975,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="D17" s="7">
-        <v>409744</v>
+        <v>246209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="I17" s="7">
-        <v>338064</v>
+        <v>187021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
-        <v>695</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>747808</v>
+        <v>433230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,49 +6026,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>171454</v>
+        <v>83305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="I18" s="7">
-        <v>244251</v>
+        <v>139295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="M18" s="7">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="N18" s="7">
-        <v>415705</v>
+        <v>222600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,10 +6077,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>667099</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6044,10 +6092,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6059,10 +6107,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1343295</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6091,10 +6139,10 @@
         <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -6103,13 +6151,13 @@
         <v>26476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -6118,13 +6166,13 @@
         <v>57567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6187,13 @@
         <v>138680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -6154,13 +6202,13 @@
         <v>115500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>238</v>
@@ -6169,13 +6217,13 @@
         <v>254180</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6238,13 @@
         <v>42847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -6205,13 +6253,13 @@
         <v>77615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -6220,13 +6268,13 @@
         <v>120462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6342,13 @@
         <v>39718</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -6309,13 +6357,13 @@
         <v>35233</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -6324,13 +6372,13 @@
         <v>74951</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6393,13 @@
         <v>137447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6360,13 +6408,13 @@
         <v>112533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -6375,13 +6423,13 @@
         <v>249980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6444,13 @@
         <v>95857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>128</v>
@@ -6411,13 +6459,13 @@
         <v>131209</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>222</v>
@@ -6426,13 +6474,13 @@
         <v>227066</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6548,13 @@
         <v>116071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6515,13 +6563,13 @@
         <v>98933</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>193</v>
@@ -6530,13 +6578,13 @@
         <v>215004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6599,13 @@
         <v>353167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -6566,13 +6614,13 @@
         <v>346189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>652</v>
@@ -6581,13 +6629,13 @@
         <v>699355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6650,13 @@
         <v>192215</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>229</v>
@@ -6617,13 +6665,13 @@
         <v>247786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>407</v>
@@ -6632,13 +6680,13 @@
         <v>440001</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6754,13 @@
         <v>110497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -6721,10 +6769,10 @@
         <v>106756</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>154</v>
@@ -6736,10 +6784,10 @@
         <v>217253</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>154</v>
@@ -6757,13 +6805,13 @@
         <v>474540</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="H33" s="7">
         <v>431</v>
@@ -6772,13 +6820,13 @@
         <v>462101</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="M33" s="7">
         <v>875</v>
@@ -6787,13 +6835,13 @@
         <v>936642</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6856,13 @@
         <v>190979</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H34" s="7">
         <v>232</v>
@@ -6826,10 +6874,10 @@
         <v>34</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -6838,13 +6886,13 @@
         <v>445005</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6934,7 @@
         <v>1470</v>
       </c>
       <c r="N35" s="7">
-        <v>1598900</v>
+        <v>1598901</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -6912,13 +6960,13 @@
         <v>481181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="H36" s="7">
         <v>412</v>
@@ -6927,13 +6975,13 @@
         <v>458631</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="M36" s="7">
         <v>850</v>
@@ -6942,13 +6990,13 @@
         <v>939813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +7011,13 @@
         <v>1963957</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7">
         <v>1635</v>
@@ -6978,13 +7026,13 @@
         <v>1757803</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="M37" s="7">
         <v>3491</v>
@@ -6993,13 +7041,13 @@
         <v>3721760</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7062,13 @@
         <v>974643</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="H38" s="7">
         <v>1247</v>
@@ -7029,13 +7077,13 @@
         <v>1337796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="M38" s="7">
         <v>2155</v>
@@ -7044,13 +7092,13 @@
         <v>2312440</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,7 +7178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA90C834-59BF-4672-BCF6-748BAA8E2AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB7550-4DEA-44C2-9DBE-D05EA7B9832D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7147,7 +7195,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7254,13 +7302,13 @@
         <v>31350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -7269,13 +7317,13 @@
         <v>54564</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -7284,13 +7332,13 @@
         <v>85913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7353,13 @@
         <v>179384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>148</v>
@@ -7320,13 +7368,13 @@
         <v>149269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>306</v>
@@ -7335,13 +7383,13 @@
         <v>328652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7404,13 @@
         <v>81032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -7371,13 +7419,13 @@
         <v>83928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>157</v>
@@ -7386,13 +7434,13 @@
         <v>164959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7508,13 @@
         <v>47344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -7475,13 +7523,13 @@
         <v>55583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>98</v>
@@ -7490,13 +7538,13 @@
         <v>102927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7559,13 @@
         <v>332819</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -7526,13 +7574,13 @@
         <v>288240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M9" s="7">
         <v>584</v>
@@ -7541,13 +7589,13 @@
         <v>621059</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7610,13 @@
         <v>122411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7577,13 +7625,13 @@
         <v>179261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="M10" s="7">
         <v>277</v>
@@ -7592,13 +7640,13 @@
         <v>301673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,10 +7717,10 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -7681,10 +7729,10 @@
         <v>55295</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>44</v>
@@ -7696,13 +7744,13 @@
         <v>101573</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7765,13 @@
         <v>198919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="H13" s="7">
         <v>185</v>
@@ -7732,13 +7780,13 @@
         <v>181426</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -7747,13 +7795,13 @@
         <v>380344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7816,13 @@
         <v>73368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -7783,13 +7831,13 @@
         <v>99589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -7798,13 +7846,13 @@
         <v>172956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7920,13 @@
         <v>68168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -7887,13 +7935,13 @@
         <v>65628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -7902,13 +7950,13 @@
         <v>133797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7971,13 @@
         <v>218390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -7938,13 +7986,13 @@
         <v>201048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -7953,13 +8001,13 @@
         <v>419438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +8022,13 @@
         <v>81576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -7989,13 +8037,13 @@
         <v>118121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="M18" s="7">
         <v>190</v>
@@ -8004,13 +8052,13 @@
         <v>199697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8126,13 @@
         <v>26004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -8093,13 +8141,13 @@
         <v>13508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -8108,13 +8156,13 @@
         <v>39511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8177,13 @@
         <v>99063</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -8144,13 +8192,13 @@
         <v>117297</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="M21" s="7">
         <v>217</v>
@@ -8159,13 +8207,13 @@
         <v>216360</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8228,13 @@
         <v>81704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -8195,13 +8243,13 @@
         <v>84792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>171</v>
@@ -8210,13 +8258,13 @@
         <v>166497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,13 +8332,13 @@
         <v>42838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -8299,13 +8347,13 @@
         <v>36801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -8314,13 +8362,13 @@
         <v>79639</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,13 +8383,13 @@
         <v>143439</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
@@ -8350,13 +8398,13 @@
         <v>145707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>284</v>
@@ -8365,13 +8413,13 @@
         <v>289146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8434,13 @@
         <v>76846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -8401,13 +8449,13 @@
         <v>90607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="M26" s="7">
         <v>160</v>
@@ -8416,13 +8464,13 @@
         <v>167453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8538,13 @@
         <v>150134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="H28" s="7">
         <v>140</v>
@@ -8505,13 +8553,13 @@
         <v>144689</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -8520,13 +8568,13 @@
         <v>294823</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8589,13 @@
         <v>400128</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="H29" s="7">
         <v>366</v>
@@ -8556,13 +8604,13 @@
         <v>386096</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="M29" s="7">
         <v>717</v>
@@ -8571,13 +8619,13 @@
         <v>786224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8640,13 @@
         <v>104187</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="H30" s="7">
         <v>140</v>
@@ -8607,13 +8655,13 @@
         <v>160509</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="M30" s="7">
         <v>241</v>
@@ -8622,13 +8670,13 @@
         <v>264696</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,28 +8744,28 @@
         <v>134770</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
       </c>
       <c r="I32" s="7">
-        <v>123072</v>
+        <v>123073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="M32" s="7">
         <v>241</v>
@@ -8726,13 +8774,13 @@
         <v>257842</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,28 +8795,28 @@
         <v>504241</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="H33" s="7">
         <v>481</v>
       </c>
       <c r="I33" s="7">
-        <v>519218</v>
+        <v>519219</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="M33" s="7">
         <v>967</v>
@@ -8777,13 +8825,13 @@
         <v>1023460</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8846,13 @@
         <v>133223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="H34" s="7">
         <v>154</v>
@@ -8813,13 +8861,13 @@
         <v>177853</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="M34" s="7">
         <v>285</v>
@@ -8828,13 +8876,13 @@
         <v>311076</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,7 +8909,7 @@
         <v>749</v>
       </c>
       <c r="I35" s="7">
-        <v>820144</v>
+        <v>820145</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -8902,13 +8950,13 @@
         <v>546886</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="H36" s="7">
         <v>526</v>
@@ -8917,10 +8965,10 @@
         <v>549140</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>42</v>
@@ -8932,13 +8980,13 @@
         <v>1096027</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +9001,13 @@
         <v>2076385</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="H37" s="7">
         <v>1908</v>
@@ -8968,13 +9016,13 @@
         <v>1988300</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="M37" s="7">
         <v>3860</v>
@@ -8983,13 +9031,13 @@
         <v>4064685</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +9052,13 @@
         <v>754347</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="H38" s="7">
         <v>892</v>
@@ -9019,13 +9067,13 @@
         <v>994660</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="M38" s="7">
         <v>1654</v>
@@ -9034,13 +9082,13 @@
         <v>1749007</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,7 +9168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DF2539-B0D3-4B89-ADB3-78008B20950B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0952C4F6-D64E-44E7-9055-EB79EDA3DA6E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9137,7 +9185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9241,46 +9289,46 @@
         <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>50784</v>
+        <v>58427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>693</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="H4" s="7">
         <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>63619</v>
+        <v>69076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
       </c>
       <c r="N4" s="7">
-        <v>114403</v>
+        <v>127503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9292,46 +9340,46 @@
         <v>192</v>
       </c>
       <c r="D5" s="7">
-        <v>155140</v>
+        <v>190278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="H5" s="7">
         <v>306</v>
       </c>
       <c r="I5" s="7">
-        <v>150233</v>
+        <v>160862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="M5" s="7">
         <v>498</v>
       </c>
       <c r="N5" s="7">
-        <v>305373</v>
+        <v>351140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>636</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9343,46 +9391,46 @@
         <v>75</v>
       </c>
       <c r="D6" s="7">
-        <v>54374</v>
+        <v>62738</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>709</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>56638</v>
+        <v>58777</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="M6" s="7">
         <v>190</v>
       </c>
       <c r="N6" s="7">
-        <v>111012</v>
+        <v>121515</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9442,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9409,7 +9457,7 @@
         <v>536</v>
       </c>
       <c r="I7" s="7">
-        <v>270490</v>
+        <v>288715</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9424,7 +9472,7 @@
         <v>867</v>
       </c>
       <c r="N7" s="7">
-        <v>530788</v>
+        <v>600158</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9447,46 +9495,46 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>96435</v>
+        <v>95432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
       </c>
       <c r="I8" s="7">
-        <v>79956</v>
+        <v>74160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>719</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>665</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
       </c>
       <c r="N8" s="7">
-        <v>176392</v>
+        <v>169593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9498,46 +9546,46 @@
         <v>253</v>
       </c>
       <c r="D9" s="7">
-        <v>367998</v>
+        <v>370909</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="H9" s="7">
         <v>433</v>
       </c>
       <c r="I9" s="7">
-        <v>348380</v>
+        <v>325135</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="M9" s="7">
         <v>686</v>
       </c>
       <c r="N9" s="7">
-        <v>716378</v>
+        <v>696044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,46 +9597,46 @@
         <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>53490</v>
+        <v>50731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>735</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>126230</v>
+        <v>115674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
       </c>
       <c r="N10" s="7">
-        <v>179720</v>
+        <v>166405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>740</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9648,7 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>517924</v>
+        <v>517073</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9615,7 +9663,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9630,7 +9678,7 @@
         <v>1098</v>
       </c>
       <c r="N11" s="7">
-        <v>1072490</v>
+        <v>1032042</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9653,46 +9701,46 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>41171</v>
+        <v>40164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>743</v>
+        <v>597</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>98</v>
+        <v>760</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>51898</v>
+        <v>48608</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
       </c>
       <c r="N12" s="7">
-        <v>93069</v>
+        <v>88772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>596</v>
+        <v>764</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,46 +9752,46 @@
         <v>212</v>
       </c>
       <c r="D13" s="7">
-        <v>209623</v>
+        <v>207542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="H13" s="7">
         <v>308</v>
       </c>
       <c r="I13" s="7">
-        <v>227788</v>
+        <v>213964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="M13" s="7">
         <v>520</v>
       </c>
       <c r="N13" s="7">
-        <v>437411</v>
+        <v>421506</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>705</v>
+        <v>774</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9755,46 +9803,46 @@
         <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>70779</v>
+        <v>67713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>757</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>758</v>
+        <v>414</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>89812</v>
+        <v>82648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>777</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="M14" s="7">
         <v>262</v>
       </c>
       <c r="N14" s="7">
-        <v>160591</v>
+        <v>150360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>567</v>
+        <v>780</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,7 +9854,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321573</v>
+        <v>315418</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9821,7 +9869,7 @@
         <v>533</v>
       </c>
       <c r="I15" s="7">
-        <v>369498</v>
+        <v>345220</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9836,7 +9884,7 @@
         <v>892</v>
       </c>
       <c r="N15" s="7">
-        <v>691071</v>
+        <v>660638</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9859,46 +9907,46 @@
         <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>106985</v>
+        <v>102571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>783</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>617</v>
+        <v>784</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
       </c>
       <c r="I16" s="7">
-        <v>111614</v>
+        <v>103389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
       </c>
       <c r="N16" s="7">
-        <v>218599</v>
+        <v>205960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>789</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,46 +9958,46 @@
         <v>121</v>
       </c>
       <c r="D17" s="7">
-        <v>153057</v>
+        <v>150550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
       </c>
       <c r="I17" s="7">
-        <v>217148</v>
+        <v>278892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
       </c>
       <c r="N17" s="7">
-        <v>370205</v>
+        <v>429443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,46 +10009,46 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>61595</v>
+        <v>58859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>780</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>98999</v>
+        <v>92689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>783</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
       </c>
       <c r="N18" s="7">
-        <v>160594</v>
+        <v>151548</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>785</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,7 +10060,7 @@
         <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>321638</v>
+        <v>311980</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -10027,7 +10075,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427761</v>
+        <v>474970</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -10042,7 +10090,7 @@
         <v>888</v>
       </c>
       <c r="N19" s="7">
-        <v>749399</v>
+        <v>786951</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -10065,46 +10113,46 @@
         <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>56520</v>
+        <v>51511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>788</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>55273</v>
+        <v>49849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
       </c>
       <c r="N20" s="7">
-        <v>111793</v>
+        <v>101359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,46 +10164,46 @@
         <v>182</v>
       </c>
       <c r="D21" s="7">
-        <v>130259</v>
+        <v>118144</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="H21" s="7">
         <v>318</v>
       </c>
       <c r="I21" s="7">
-        <v>150623</v>
+        <v>135149</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>798</v>
+        <v>652</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="M21" s="7">
         <v>500</v>
       </c>
       <c r="N21" s="7">
-        <v>280883</v>
+        <v>253293</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,46 +10215,46 @@
         <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>9808</v>
+        <v>8926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
       </c>
       <c r="I22" s="7">
-        <v>25600</v>
+        <v>23277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
       </c>
       <c r="N22" s="7">
-        <v>35408</v>
+        <v>32202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>826</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,7 +10266,7 @@
         <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>196588</v>
+        <v>178580</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10233,7 +10281,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10248,7 +10296,7 @@
         <v>769</v>
       </c>
       <c r="N23" s="7">
-        <v>428084</v>
+        <v>386854</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10271,46 +10319,46 @@
         <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>33252</v>
+        <v>31992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>814</v>
+        <v>693</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
       </c>
       <c r="I24" s="7">
-        <v>53153</v>
+        <v>49412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>816</v>
+        <v>240</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="M24" s="7">
         <v>118</v>
       </c>
       <c r="N24" s="7">
-        <v>86405</v>
+        <v>81404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>834</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10322,46 +10370,46 @@
         <v>212</v>
       </c>
       <c r="D25" s="7">
-        <v>180564</v>
+        <v>176523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
       </c>
       <c r="I25" s="7">
-        <v>155638</v>
+        <v>145369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="M25" s="7">
         <v>439</v>
       </c>
       <c r="N25" s="7">
-        <v>336201</v>
+        <v>321892</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,46 +10421,46 @@
         <v>117</v>
       </c>
       <c r="D26" s="7">
-        <v>63408</v>
+        <v>61121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="H26" s="7">
         <v>157</v>
       </c>
       <c r="I26" s="7">
-        <v>66831</v>
+        <v>62275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>834</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
       </c>
       <c r="N26" s="7">
-        <v>130239</v>
+        <v>123396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,7 +10472,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10439,7 +10487,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10454,7 +10502,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10477,46 +10525,46 @@
         <v>146</v>
       </c>
       <c r="D28" s="7">
-        <v>141707</v>
+        <v>142326</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
       </c>
       <c r="I28" s="7">
-        <v>173891</v>
+        <v>162519</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>842</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>759</v>
+        <v>856</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
       </c>
       <c r="N28" s="7">
-        <v>315598</v>
+        <v>304845</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>843</v>
+        <v>343</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10528,46 +10576,46 @@
         <v>350</v>
       </c>
       <c r="D29" s="7">
-        <v>391785</v>
+        <v>391292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="H29" s="7">
         <v>535</v>
       </c>
       <c r="I29" s="7">
-        <v>507694</v>
+        <v>575096</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="M29" s="7">
         <v>885</v>
       </c>
       <c r="N29" s="7">
-        <v>899479</v>
+        <v>966388</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10579,46 +10627,46 @@
         <v>98</v>
       </c>
       <c r="D30" s="7">
-        <v>91796</v>
+        <v>88215</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>856</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>857</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
       </c>
       <c r="I30" s="7">
-        <v>120657</v>
+        <v>109878</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>858</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>664</v>
+        <v>870</v>
       </c>
       <c r="M30" s="7">
         <v>276</v>
       </c>
       <c r="N30" s="7">
-        <v>212453</v>
+        <v>198094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>669</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10630,7 +10678,7 @@
         <v>594</v>
       </c>
       <c r="D31" s="7">
-        <v>625288</v>
+        <v>621833</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10645,7 +10693,7 @@
         <v>957</v>
       </c>
       <c r="I31" s="7">
-        <v>802243</v>
+        <v>847494</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10660,7 +10708,7 @@
         <v>1551</v>
       </c>
       <c r="N31" s="7">
-        <v>1427531</v>
+        <v>1469327</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10683,46 +10731,46 @@
         <v>135</v>
       </c>
       <c r="D32" s="7">
-        <v>146184</v>
+        <v>124202</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>862</v>
+        <v>292</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="H32" s="7">
         <v>145</v>
       </c>
       <c r="I32" s="7">
-        <v>124482</v>
+        <v>103449</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="M32" s="7">
         <v>280</v>
       </c>
       <c r="N32" s="7">
-        <v>270666</v>
+        <v>227650</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>867</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>746</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10734,46 +10782,46 @@
         <v>470</v>
       </c>
       <c r="D33" s="7">
-        <v>573596</v>
+        <v>685089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="H33" s="7">
         <v>555</v>
       </c>
       <c r="I33" s="7">
-        <v>492016</v>
+        <v>403357</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="M33" s="7">
         <v>1025</v>
       </c>
       <c r="N33" s="7">
-        <v>1065612</v>
+        <v>1088446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10785,46 +10833,46 @@
         <v>154</v>
       </c>
       <c r="D34" s="7">
-        <v>136384</v>
+        <v>116635</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>520</v>
+        <v>889</v>
       </c>
       <c r="H34" s="7">
         <v>361</v>
       </c>
       <c r="I34" s="7">
-        <v>251186</v>
+        <v>210290</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="M34" s="7">
         <v>515</v>
       </c>
       <c r="N34" s="7">
-        <v>387569</v>
+        <v>326925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>884</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>885</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10836,7 +10884,7 @@
         <v>759</v>
       </c>
       <c r="D35" s="7">
-        <v>856164</v>
+        <v>925926</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10851,7 +10899,7 @@
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867683</v>
+        <v>717096</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10866,7 +10914,7 @@
         <v>1820</v>
       </c>
       <c r="N35" s="7">
-        <v>1723847</v>
+        <v>1643021</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10889,46 +10937,46 @@
         <v>681</v>
       </c>
       <c r="D36" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>886</v>
+        <v>128</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="H36" s="7">
         <v>1004</v>
       </c>
       <c r="I36" s="7">
-        <v>713887</v>
+        <v>660463</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="M36" s="7">
         <v>1685</v>
       </c>
       <c r="N36" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10940,46 +10988,46 @@
         <v>1992</v>
       </c>
       <c r="D37" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H37" s="7">
         <v>2921</v>
       </c>
       <c r="I37" s="7">
-        <v>2249521</v>
+        <v>2237823</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="M37" s="7">
         <v>4913</v>
       </c>
       <c r="N37" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>475</v>
+        <v>908</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>655</v>
+        <v>909</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10991,46 +11039,46 @@
         <v>691</v>
       </c>
       <c r="D38" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>902</v>
+        <v>442</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="H38" s="7">
         <v>1427</v>
       </c>
       <c r="I38" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>642</v>
+        <v>912</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="M38" s="7">
         <v>2118</v>
       </c>
       <c r="N38" s="7">
-        <v>1377587</v>
+        <v>1270446</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>839</v>
+        <v>914</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>906</v>
+        <v>546</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11042,7 +11090,7 @@
         <v>3364</v>
       </c>
       <c r="D39" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -11057,7 +11105,7 @@
         <v>5352</v>
       </c>
       <c r="I39" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -11072,7 +11120,7 @@
         <v>8716</v>
       </c>
       <c r="N39" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
